--- a/2-Empirical-Evidence/raw_data/Delaware.xlsx
+++ b/2-Empirical-Evidence/raw_data/Delaware.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Local Area Unemployment Statistics</t>
   </si>
@@ -20,7 +20,7 @@
     <t>Years:</t>
   </si>
   <si>
-    <t>1990 to 2020</t>
+    <t>1990 to 2024</t>
   </si>
   <si>
     <t>Series ID</t>
@@ -148,6 +148,22 @@
   <si>
     <t>Annual
 2020</t>
+  </si>
+  <si>
+    <t>Annual
+2021</t>
+  </si>
+  <si>
+    <t>Annual
+2022</t>
+  </si>
+  <si>
+    <t>Annual
+2023</t>
+  </si>
+  <si>
+    <t>Annual
+2024</t>
   </si>
   <si>
     <t>LAUCN100010000000003</t>
@@ -574,10 +590,22 @@
       <c r="AF4" t="s" s="3">
         <v>34</v>
       </c>
+      <c r="AG4" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="AH4" t="s" s="3">
+        <v>36</v>
+      </c>
+      <c r="AI4" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="AJ4" t="s" s="3">
+        <v>38</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="7">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B5" t="n" s="10">
         <v>4.3</v>
@@ -672,10 +700,20 @@
       <c r="AF5" t="n" s="10">
         <v>8.3</v>
       </c>
+      <c r="AG5" t="n" s="10">
+        <v>6.4</v>
+      </c>
+      <c r="AH5" t="n" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="AI5" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AJ5"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="7">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B6" t="n" s="8">
         <v>2531.0</v>
@@ -770,10 +808,20 @@
       <c r="AF6" t="n" s="8">
         <v>6598.0</v>
       </c>
+      <c r="AG6" t="n" s="8">
+        <v>5154.0</v>
+      </c>
+      <c r="AH6" t="n" s="8">
+        <v>3977.0</v>
+      </c>
+      <c r="AI6" t="n" s="8">
+        <v>3674.0</v>
+      </c>
+      <c r="AJ6"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="7">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B7" t="n" s="8">
         <v>55923.0</v>
@@ -868,10 +916,20 @@
       <c r="AF7" t="n" s="8">
         <v>73234.0</v>
       </c>
+      <c r="AG7" t="n" s="8">
+        <v>75841.0</v>
+      </c>
+      <c r="AH7" t="n" s="8">
+        <v>76631.0</v>
+      </c>
+      <c r="AI7" t="n" s="8">
+        <v>77738.0</v>
+      </c>
+      <c r="AJ7"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="7">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B8" t="n" s="8">
         <v>58454.0</v>
@@ -966,10 +1024,20 @@
       <c r="AF8" t="n" s="8">
         <v>79832.0</v>
       </c>
+      <c r="AG8" t="n" s="8">
+        <v>80995.0</v>
+      </c>
+      <c r="AH8" t="n" s="8">
+        <v>80608.0</v>
+      </c>
+      <c r="AI8" t="n" s="8">
+        <v>81412.0</v>
+      </c>
+      <c r="AJ8"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="7">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B9" t="n" s="10">
         <v>4.8</v>
@@ -1064,10 +1132,20 @@
       <c r="AF9" t="n" s="10">
         <v>7.4</v>
       </c>
+      <c r="AG9" t="n" s="10">
+        <v>5.4</v>
+      </c>
+      <c r="AH9" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AI9" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AJ9"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="7">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B10" t="n" s="8">
         <v>11453.0</v>
@@ -1162,10 +1240,20 @@
       <c r="AF10" t="n" s="8">
         <v>22100.0</v>
       </c>
+      <c r="AG10" t="n" s="8">
+        <v>16367.0</v>
+      </c>
+      <c r="AH10" t="n" s="8">
+        <v>12556.0</v>
+      </c>
+      <c r="AI10" t="n" s="8">
+        <v>12041.0</v>
+      </c>
+      <c r="AJ10"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="7">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B11" t="n" s="8">
         <v>228419.0</v>
@@ -1260,10 +1348,20 @@
       <c r="AF11" t="n" s="8">
         <v>277563.0</v>
       </c>
+      <c r="AG11" t="n" s="8">
+        <v>285111.0</v>
+      </c>
+      <c r="AH11" t="n" s="8">
+        <v>291869.0</v>
+      </c>
+      <c r="AI11" t="n" s="8">
+        <v>298270.0</v>
+      </c>
+      <c r="AJ11"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="7">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B12" t="n" s="8">
         <v>239872.0</v>
@@ -1358,10 +1456,20 @@
       <c r="AF12" t="n" s="8">
         <v>299663.0</v>
       </c>
+      <c r="AG12" t="n" s="8">
+        <v>301478.0</v>
+      </c>
+      <c r="AH12" t="n" s="8">
+        <v>304425.0</v>
+      </c>
+      <c r="AI12" t="n" s="8">
+        <v>310311.0</v>
+      </c>
+      <c r="AJ12"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="7">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B13" t="n" s="10">
         <v>3.2</v>
@@ -1456,10 +1564,20 @@
       <c r="AF13" t="n" s="10">
         <v>7.2</v>
       </c>
+      <c r="AG13" t="n" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="AH13" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AI13" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AJ13"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="7">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B14" t="n" s="8">
         <v>1974.0</v>
@@ -1554,10 +1672,20 @@
       <c r="AF14" t="n" s="8">
         <v>7679.0</v>
       </c>
+      <c r="AG14" t="n" s="8">
+        <v>5483.0</v>
+      </c>
+      <c r="AH14" t="n" s="8">
+        <v>4674.0</v>
+      </c>
+      <c r="AI14" t="n" s="8">
+        <v>4410.0</v>
+      </c>
+      <c r="AJ14"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="7">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B15" t="n" s="8">
         <v>59825.0</v>
@@ -1652,10 +1780,20 @@
       <c r="AF15" t="n" s="8">
         <v>99528.0</v>
       </c>
+      <c r="AG15" t="n" s="8">
+        <v>105672.0</v>
+      </c>
+      <c r="AH15" t="n" s="8">
+        <v>107494.0</v>
+      </c>
+      <c r="AI15" t="n" s="8">
+        <v>110397.0</v>
+      </c>
+      <c r="AJ15"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="7">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B16" t="n" s="8">
         <v>61799.0</v>
@@ -1750,6 +1888,16 @@
       <c r="AF16" t="n" s="8">
         <v>107207.0</v>
       </c>
+      <c r="AG16" t="n" s="8">
+        <v>111155.0</v>
+      </c>
+      <c r="AH16" t="n" s="8">
+        <v>112168.0</v>
+      </c>
+      <c r="AI16" t="n" s="8">
+        <v>114807.0</v>
+      </c>
+      <c r="AJ16"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1760,7 +1908,7 @@
   <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddHeader>&amp;CBureau of Labor Statistics</oddHeader>
-    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: December 27, 2024 (12:51:26 AM)</oddFooter>
+    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: January 5, 2025 (02:25:09 PM)</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
